--- a/biology/Botanique/Dialioideae/Dialioideae.xlsx
+++ b/biology/Botanique/Dialioideae/Dialioideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dialioideae sont une des six sous-familles de plantes à fleurs de la  famille des Fabaceae (Leguminoseae) définies en 2017 par le Legume Phylogeny Working Group. Cette sous-famille, qui comprend de nombreux arbres et arbustes tropicaux, regroupe 17 genres (soit environ 90 espèces) largement répandus dans les régions tropicales. Elle correspond à un clade précédemment inclus dans la sous-famille des Caesalpinioideae.
 Elle répond à la définition cladistique suivante : 
-« groupe-couronne le plus inclusif contenant Poeppigia procera C.Presl et Dialium guianense (Aubl.) Sandwith, mais pas  Cercis canadensis L., Duparquetia orchidacea Baill., ou Bobgunnia fistuloides (Harms) JH Kirkbr. &amp; Wiersema[1]. »
-Les membres de cette sous-famille partagent également les caractéristiques morphologiques suivantes : présence d'inflorescences cymeuses, absence de  trachéides aréolées dans le xylème et perte importante d’organes[3],[4].
+« groupe-couronne le plus inclusif contenant Poeppigia procera C.Presl et Dialium guianense (Aubl.) Sandwith, mais pas  Cercis canadensis L., Duparquetia orchidacea Baill., ou Bobgunnia fistuloides (Harms) JH Kirkbr. &amp; Wiersema. »
+Les membres de cette sous-famille partagent également les caractéristiques morphologiques suivantes : présence d'inflorescences cymeuses, absence de  trachéides aréolées dans le xylème et perte importante d’organes,.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Dialioideae comprennent les genres suivants[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Dialioideae comprennent les genres suivants :
 Androcalymma Dwyer
 Apuleia Mart.
 Baudouinia Baill.
@@ -562,9 +576,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Dialioideae présentent les relations phylogénétiques suivantes[5] (comparer [3],[6],[7],[8])
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Dialioideae présentent les relations phylogénétiques suivantes (comparer )
 </t>
         </is>
       </c>
